--- a/SHC code/sims/K_5_random_sphere_4-dimensional.xlsx
+++ b/SHC code/sims/K_5_random_sphere_4-dimensional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\thesis\SHC code\sims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C3DDE-6781-4685-8777-079E137D5D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872DFA0-4345-4EFE-9691-197767A16D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CA45C61-1169-4AC7-9660-1FA924585924}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>True $K$</t>
   </si>
   <si>
-    <t>Median time (sec.)</t>
-  </si>
-  <si>
     <t>Simulation Settings</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>2 (1.21)</t>
+  </si>
+  <si>
+    <t>Median time for 1 replication (sec.)</t>
   </si>
 </sst>
 </file>
@@ -480,15 +480,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,6 +497,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,68 +823,68 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -899,16 +899,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="H3">
         <v>0.24</v>
@@ -916,7 +916,7 @@
       <c r="I3">
         <v>0.11</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>0.11</v>
       </c>
       <c r="K3">
@@ -937,16 +937,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="H4">
         <v>0.78</v>
@@ -954,7 +954,7 @@
       <c r="I4">
         <v>0.68</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>0.71</v>
       </c>
       <c r="K4">
@@ -975,16 +975,16 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="H5">
         <v>0.94</v>
@@ -992,7 +992,7 @@
       <c r="I5">
         <v>0.89</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>0.91</v>
       </c>
       <c r="K5">
@@ -1013,16 +1013,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="H6">
         <v>0.97</v>
@@ -1030,7 +1030,7 @@
       <c r="I6">
         <v>0.95</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>0.96</v>
       </c>
       <c r="K6">
@@ -1051,16 +1051,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="H7">
         <v>0.99</v>
@@ -1068,7 +1068,7 @@
       <c r="I7">
         <v>0.96</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>0.98</v>
       </c>
       <c r="K7">
@@ -1089,16 +1089,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H8">
         <v>0.12</v>
@@ -1106,7 +1106,7 @@
       <c r="I8">
         <v>0.02</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>0.02</v>
       </c>
       <c r="K8">
@@ -1127,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="H9">
         <v>0.63</v>
@@ -1144,7 +1144,7 @@
       <c r="I9">
         <v>0.49</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>0.5</v>
       </c>
       <c r="K9">
@@ -1165,16 +1165,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="H10">
         <v>0.87</v>
@@ -1182,7 +1182,7 @@
       <c r="I10">
         <v>0.8</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>0.8</v>
       </c>
       <c r="K10">
@@ -1203,16 +1203,16 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="H11">
         <v>0.95</v>
@@ -1220,7 +1220,7 @@
       <c r="I11">
         <v>0.91</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>0.92</v>
       </c>
       <c r="K11">
@@ -1241,16 +1241,16 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="H12">
         <v>0.98</v>
@@ -1258,7 +1258,7 @@
       <c r="I12">
         <v>0.95</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>0.96</v>
       </c>
       <c r="K12">
@@ -1279,24 +1279,24 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13">
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1334,7 +1334,7 @@
       <c r="I14">
         <v>0.15</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>0.16</v>
       </c>
       <c r="K14">
@@ -1355,16 +1355,16 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="H15">
         <v>0.55000000000000004</v>
@@ -1372,7 +1372,7 @@
       <c r="I15">
         <v>0.47</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>0.48</v>
       </c>
       <c r="K15">
@@ -1393,16 +1393,16 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="H16">
         <v>0.72</v>
@@ -1410,7 +1410,7 @@
       <c r="I16">
         <v>0.67</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <v>0.69</v>
       </c>
       <c r="K16">
@@ -1431,16 +1431,16 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="H17">
         <v>0.81</v>
@@ -1448,7 +1448,7 @@
       <c r="I17">
         <v>0.8</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>0.82</v>
       </c>
       <c r="K17">
@@ -1469,16 +1469,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H18">
         <v>0.16</v>
@@ -1486,7 +1486,7 @@
       <c r="I18">
         <v>0.01</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="8">
         <v>0.02</v>
       </c>
       <c r="K18">
@@ -1507,16 +1507,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="H19">
         <v>0.67</v>
@@ -1524,7 +1524,7 @@
       <c r="I19">
         <v>0.49</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <v>0.51</v>
       </c>
       <c r="K19">
@@ -1545,16 +1545,16 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H20">
         <v>0.89</v>
@@ -1562,7 +1562,7 @@
       <c r="I20">
         <v>0.79</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <v>0.81</v>
       </c>
       <c r="K20">
@@ -1583,16 +1583,16 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="H21">
         <v>0.96</v>
@@ -1600,7 +1600,7 @@
       <c r="I21">
         <v>0.89</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>0.91</v>
       </c>
       <c r="K21">
@@ -1621,16 +1621,16 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H22">
         <v>0.98</v>
@@ -1638,7 +1638,7 @@
       <c r="I22">
         <v>0.94</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>0.96</v>
       </c>
       <c r="K22">
@@ -1659,16 +1659,16 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H23">
         <v>0.09</v>
@@ -1676,7 +1676,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="8">
         <v>0</v>
       </c>
       <c r="K23">
@@ -1697,16 +1697,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="H24">
         <v>0.53</v>
@@ -1714,7 +1714,7 @@
       <c r="I24">
         <v>0.31</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="8">
         <v>0.32</v>
       </c>
       <c r="K24">
@@ -1735,16 +1735,16 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="H25">
         <v>0.8</v>
@@ -1752,7 +1752,7 @@
       <c r="I25">
         <v>0.63</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="8">
         <v>0.65</v>
       </c>
       <c r="K25">
@@ -1773,16 +1773,16 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="H26">
         <v>0.91</v>
@@ -1790,7 +1790,7 @@
       <c r="I26">
         <v>0.81</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <v>0.83</v>
       </c>
       <c r="K26">
@@ -1811,16 +1811,16 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H27">
         <v>0.96</v>
@@ -1828,7 +1828,7 @@
       <c r="I27">
         <v>0.89</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <v>0.91</v>
       </c>
       <c r="K27">
@@ -1849,16 +1849,16 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H28">
         <v>0.01</v>
@@ -1866,7 +1866,7 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="8">
         <v>0</v>
       </c>
       <c r="K28">
@@ -1887,16 +1887,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="H29">
         <v>0.23</v>
@@ -1904,7 +1904,7 @@
       <c r="I29">
         <v>0.06</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="8">
         <v>0.06</v>
       </c>
       <c r="K29">
@@ -1925,16 +1925,16 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="H30">
         <v>0.51</v>
@@ -1942,7 +1942,7 @@
       <c r="I30">
         <v>0.34</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="8">
         <v>0.35</v>
       </c>
       <c r="K30">
@@ -1963,16 +1963,16 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="H31">
         <v>0.68</v>
@@ -1980,7 +1980,7 @@
       <c r="I31">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="8">
         <v>0.57999999999999996</v>
       </c>
       <c r="K31">
@@ -2001,16 +2001,16 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="H32">
         <v>0.78</v>
@@ -2018,7 +2018,7 @@
       <c r="I32">
         <v>0.71</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <v>0.74</v>
       </c>
       <c r="K32">
@@ -2039,16 +2039,16 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H33">
         <v>0.05</v>
@@ -2056,7 +2056,7 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="8">
         <v>0</v>
       </c>
       <c r="K33">
@@ -2077,16 +2077,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="H34">
         <v>0.34</v>
@@ -2094,7 +2094,7 @@
       <c r="I34">
         <v>0.01</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="8">
         <v>0.02</v>
       </c>
       <c r="K34">
@@ -2115,16 +2115,16 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="H35">
         <v>0.62</v>
@@ -2132,7 +2132,7 @@
       <c r="I35">
         <v>0.2</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="8">
         <v>0.23</v>
       </c>
       <c r="K35">
@@ -2153,16 +2153,16 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="H36">
         <v>0.8</v>
@@ -2170,7 +2170,7 @@
       <c r="I36">
         <v>0.45</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="8">
         <v>0.5</v>
       </c>
       <c r="K36">
@@ -2191,16 +2191,16 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="H37">
         <v>0.89</v>
@@ -2208,7 +2208,7 @@
       <c r="I37">
         <v>0.64</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="8">
         <v>0.7</v>
       </c>
       <c r="K37">
@@ -2229,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H38">
         <v>0.02</v>
@@ -2246,7 +2246,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="8">
         <v>0</v>
       </c>
       <c r="K38">
@@ -2267,16 +2267,16 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H39">
         <v>0.26</v>
@@ -2284,7 +2284,7 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="8">
         <v>0</v>
       </c>
       <c r="K39">
@@ -2305,16 +2305,16 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="H40">
         <v>0.52</v>
@@ -2322,7 +2322,7 @@
       <c r="I40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="8">
         <v>0.08</v>
       </c>
       <c r="K40">
@@ -2343,16 +2343,16 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="H41">
         <v>0.72</v>
@@ -2360,7 +2360,7 @@
       <c r="I41">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="8">
         <v>0.31</v>
       </c>
       <c r="K41">
@@ -2381,16 +2381,16 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="H42">
         <v>0.83</v>
@@ -2398,7 +2398,7 @@
       <c r="I42">
         <v>0.5</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="8">
         <v>0.55000000000000004</v>
       </c>
       <c r="K42">
@@ -2419,16 +2419,16 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="H43">
         <v>0.01</v>
@@ -2436,7 +2436,7 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="8">
         <v>0</v>
       </c>
       <c r="K43">
@@ -2457,16 +2457,16 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="H44">
         <v>0.09</v>
@@ -2474,7 +2474,7 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="8">
         <v>0</v>
       </c>
       <c r="K44">
@@ -2495,16 +2495,16 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>94</v>
+        <v>25</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="H45">
         <v>0.32</v>
@@ -2512,7 +2512,7 @@
       <c r="I45">
         <v>0.01</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="8">
         <v>0.01</v>
       </c>
       <c r="K45">
@@ -2533,16 +2533,16 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="H46">
         <v>0.52</v>
@@ -2550,7 +2550,7 @@
       <c r="I46">
         <v>0.1</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="8">
         <v>0.11</v>
       </c>
       <c r="K46">
@@ -2571,16 +2571,16 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="H47">
         <v>0.66</v>
@@ -2588,7 +2588,7 @@
       <c r="I47">
         <v>0.26</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="8">
         <v>0.28000000000000003</v>
       </c>
       <c r="K47">
@@ -2609,16 +2609,16 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H48">
         <v>0.02</v>
@@ -2626,7 +2626,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="8">
         <v>0</v>
       </c>
       <c r="K48">
@@ -2647,16 +2647,16 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H49">
         <v>0.21</v>
@@ -2664,7 +2664,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="8">
         <v>0</v>
       </c>
       <c r="K49">
@@ -2685,16 +2685,16 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H50">
         <v>0.4</v>
@@ -2702,7 +2702,7 @@
       <c r="I50">
         <v>0.03</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="8">
         <v>0.04</v>
       </c>
       <c r="K50">
@@ -2723,16 +2723,16 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="H51">
         <v>0.59</v>
@@ -2740,7 +2740,7 @@
       <c r="I51">
         <v>0.15</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="8">
         <v>0.17</v>
       </c>
       <c r="K51">
@@ -2761,16 +2761,16 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="H52">
         <v>0.73</v>
@@ -2778,7 +2778,7 @@
       <c r="I52">
         <v>0.34</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="8">
         <v>0.39</v>
       </c>
       <c r="K52">
@@ -2799,16 +2799,16 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H53">
         <v>0.01</v>
@@ -2816,7 +2816,7 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="8">
         <v>0</v>
       </c>
       <c r="K53">
@@ -2837,16 +2837,16 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H54">
         <v>0.14000000000000001</v>
@@ -2854,7 +2854,7 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="8">
         <v>0</v>
       </c>
       <c r="K54">
@@ -2875,16 +2875,16 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H55">
         <v>0.34</v>
@@ -2892,7 +2892,7 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="8">
         <v>0</v>
       </c>
       <c r="K55">
@@ -2913,16 +2913,16 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>103</v>
+        <v>22</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="H56">
         <v>0.51</v>
@@ -2930,7 +2930,7 @@
       <c r="I56">
         <v>0.05</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="8">
         <v>0.06</v>
       </c>
       <c r="K56">
@@ -2951,16 +2951,16 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="H57">
         <v>0.65</v>
@@ -2968,7 +2968,7 @@
       <c r="I57">
         <v>0.19</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="8">
         <v>0.22</v>
       </c>
       <c r="K57">
@@ -2989,16 +2989,16 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3006,7 +3006,7 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="8">
         <v>0</v>
       </c>
       <c r="K58">
@@ -3027,16 +3027,16 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H59">
         <v>0.04</v>
@@ -3044,7 +3044,7 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="8">
         <v>0</v>
       </c>
       <c r="K59">
@@ -3065,16 +3065,16 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H60">
         <v>0.19</v>
@@ -3082,7 +3082,7 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="8">
         <v>0</v>
       </c>
       <c r="K60">
@@ -3103,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H61">
         <v>0.37</v>
@@ -3120,7 +3120,7 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="8">
         <v>0</v>
       </c>
       <c r="K61">
@@ -3141,16 +3141,16 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="H62">
         <v>0.5</v>
@@ -3158,7 +3158,7 @@
       <c r="I62">
         <v>0.04</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="8">
         <v>0.05</v>
       </c>
       <c r="K62">
@@ -3179,16 +3179,16 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3196,7 +3196,7 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="8">
         <v>0</v>
       </c>
       <c r="K63">
@@ -3217,16 +3217,16 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H64">
         <v>0.01</v>
@@ -3234,7 +3234,7 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="8">
         <v>0</v>
       </c>
       <c r="K64">
@@ -3255,16 +3255,16 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H65">
         <v>0.03</v>
@@ -3272,7 +3272,7 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="8">
         <v>0</v>
       </c>
       <c r="K65">
@@ -3293,16 +3293,16 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H66">
         <v>0.08</v>
@@ -3310,7 +3310,7 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="8">
         <v>0</v>
       </c>
       <c r="K66">
@@ -3331,16 +3331,16 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H67">
         <v>0.15</v>
@@ -3348,7 +3348,7 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="8">
         <v>0</v>
       </c>
       <c r="K67">
@@ -3369,16 +3369,16 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3386,7 +3386,7 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="8">
         <v>0</v>
       </c>
       <c r="K68">
@@ -3407,16 +3407,16 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H69">
         <v>0.01</v>
@@ -3424,7 +3424,7 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="8">
         <v>0</v>
       </c>
       <c r="K69">
@@ -3445,16 +3445,16 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H70">
         <v>0.02</v>
@@ -3462,7 +3462,7 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="8">
         <v>0</v>
       </c>
       <c r="K70">
@@ -3483,16 +3483,16 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H71">
         <v>0.04</v>
@@ -3500,7 +3500,7 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="8">
         <v>0</v>
       </c>
       <c r="K71">
@@ -3521,16 +3521,16 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H72">
         <v>0.09</v>
@@ -3538,7 +3538,7 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="8">
         <v>0</v>
       </c>
       <c r="K72">
@@ -3559,16 +3559,16 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3576,7 +3576,7 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="8">
         <v>0</v>
       </c>
       <c r="K73">
@@ -3597,16 +3597,16 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3614,7 +3614,7 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="8">
         <v>0</v>
       </c>
       <c r="K74">
@@ -3635,16 +3635,16 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H75">
         <v>0.01</v>
@@ -3652,7 +3652,7 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="8">
         <v>0</v>
       </c>
       <c r="K75">
@@ -3673,16 +3673,16 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H76">
         <v>0.02</v>
@@ -3690,7 +3690,7 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="8">
         <v>0</v>
       </c>
       <c r="K76">
@@ -3701,44 +3701,44 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
-        <v>250</v>
-      </c>
-      <c r="B77" s="8">
+      <c r="A77" s="5">
+        <v>250</v>
+      </c>
+      <c r="B77" s="5">
         <v>1000</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>25</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="8">
+      <c r="D77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="5">
         <v>0.04</v>
       </c>
-      <c r="I77" s="8">
-        <v>0</v>
-      </c>
-      <c r="J77" s="12">
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
         <v>11.04</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="5">
         <v>12.5</v>
       </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/SHC code/sims/K_5_random_sphere_4-dimensional.xlsx
+++ b/SHC code/sims/K_5_random_sphere_4-dimensional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\thesis\SHC code\sims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872DFA0-4345-4EFE-9691-197767A16D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{119501DA-C4F7-44A7-87EF-5E81A0016C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CA45C61-1169-4AC7-9660-1FA924585924}"/>
   </bookViews>
